--- a/Client/ExcelConfig/Excel/Wall.xlsx
+++ b/Client/ExcelConfig/Excel/Wall.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,58 +84,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,71 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +194,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,26 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,21 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -514,8 +472,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,157 +516,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1127,11 +1120,11 @@
       <c r="C4" s="1">
         <v>-450</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1000</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1150,11 +1143,11 @@
       <c r="C5" s="1">
         <v>-450</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2000</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1173,11 +1166,11 @@
       <c r="C6" s="1">
         <v>-600</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3000</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1196,11 +1189,11 @@
       <c r="C7" s="1">
         <v>-600</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4000</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1219,11 +1212,11 @@
       <c r="C8" s="1">
         <v>-750</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5000</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1242,11 +1235,11 @@
       <c r="C9" s="1">
         <v>-750</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5000</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1265,11 +1258,11 @@
       <c r="C10" s="1">
         <v>-900</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5000</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1288,11 +1281,11 @@
       <c r="C11" s="1">
         <v>-1200</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5000</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1311,11 +1304,11 @@
       <c r="C12" s="1">
         <v>-1500</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5000</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1334,11 +1327,11 @@
       <c r="C13" s="1">
         <v>-1800</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5000</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1357,22 +1350,17 @@
       <c r="C14" s="1">
         <v>-2100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5000</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>150000</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Client/ExcelConfig/Excel/Wall.xlsx
+++ b/Client/ExcelConfig/Excel/Wall.xlsx
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,8 +83,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,7 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,8 +196,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,100 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +236,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,144 +260,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,30 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,16 +431,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,10 +478,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -474,30 +509,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,27 +527,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1121,7 +1121,7 @@
         <v>-450</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>1500</v>
       </c>
       <c r="C5" s="1">
-        <v>-450</v>
+        <v>-900</v>
       </c>
       <c r="D5" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>60000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1164,10 +1164,10 @@
         <v>1500</v>
       </c>
       <c r="C6" s="1">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="D6" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>90000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1187,10 +1187,10 @@
         <v>1500</v>
       </c>
       <c r="C7" s="1">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="D7" s="1">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>90000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1210,10 +1210,10 @@
         <v>1500</v>
       </c>
       <c r="C8" s="1">
-        <v>-750</v>
+        <v>-1200</v>
       </c>
       <c r="D8" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>150000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1233,10 +1233,10 @@
         <v>1500</v>
       </c>
       <c r="C9" s="1">
-        <v>-750</v>
+        <v>-1200</v>
       </c>
       <c r="D9" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>150000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1256,10 +1256,10 @@
         <v>1500</v>
       </c>
       <c r="C10" s="1">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="D10" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>150000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1279,10 +1279,10 @@
         <v>1500</v>
       </c>
       <c r="C11" s="1">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="D11" s="1">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>150000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1305,7 +1305,7 @@
         <v>-1500</v>
       </c>
       <c r="D12" s="1">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>150000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1328,7 +1328,7 @@
         <v>-1800</v>
       </c>
       <c r="D13" s="1">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>150000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1360,8 +1360,14 @@
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>150000</v>
-      </c>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
